--- a/FD Graded Quiz M6.xlsx
+++ b/FD Graded Quiz M6.xlsx
@@ -8,22 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Documents\Git\Practice\teaching_content_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28790B1-4597-419E-8F8B-D08D14FCE237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45259C3-4CFD-43D0-BC0D-7D90B834E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FD Graded M6 L1" sheetId="1" r:id="rId1"/>
     <sheet name="FD Graded M6 L2" sheetId="2" r:id="rId2"/>
     <sheet name="FD Graded M6 L3" sheetId="3" r:id="rId3"/>
     <sheet name="FD Graded M6 L4" sheetId="4" r:id="rId4"/>
-    <sheet name="FD Graded M6 L5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FD Graded M6 L1'!$A$1:$J$932</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="CyuvxK9QajSolrh7wVDwTSEQyelYfbBPyzGMnQGqiq4="/>
     </ext>
@@ -55300,6 +55310,31 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="F61:G61"/>
@@ -55311,31 +55346,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -58152,7 +58162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z916"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -60761,11 +60773,30 @@
     <row r="916" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F2:G2"/>
@@ -60782,44 +60813,13 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000F9A3-D043-4F09-A9D8-BDDFBE278D1F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>